--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetFormula 1_7_DataErrorMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetFormula 1_7_DataErrorMarketsList.xlsx
@@ -17,22 +17,22 @@
     <t>1  This market works for Client  GameID = 3908759  MarketName = Race Winner Driver  MarketID = 231478348  SelectorError = 0.6493506493506493</t>
   </si>
   <si>
-    <t>2  This market works for Client  GameID = 3908768  MarketName = Head To Head  MarketID = 231479332  SelectorError = 0.7194244604316548</t>
+    <t>2  This market works for Client  GameID = 3908768  MarketName = Head To Head  MarketID = 231479336  SelectorError = 0.35211267605633806</t>
   </si>
   <si>
-    <t>3  This market works for Client  GameID = 3908768  MarketName = Head To Head  MarketID = 231479336  SelectorError = 0.35211267605633806</t>
+    <t>3  This market works for Client  GameID = 3908768  MarketName = Head To Head  MarketID = 231479332  SelectorError = 0.7194244604316548</t>
   </si>
   <si>
-    <t>4  This market works for Client  GameID = 3908768  MarketName = Head To Head  MarketID = 231479333  SelectorError = 0.8620689655172414</t>
+    <t>4  This market works for Client  GameID = 3908768  MarketName = Head To Head  MarketID = 231479337  SelectorError = 0.8130081300813008</t>
   </si>
   <si>
-    <t>5  This market works for Client  GameID = 3908768  MarketName = Head To Head  MarketID = 231479334  SelectorError = 0.35211267605633806</t>
+    <t>5  This market works for Client  GameID = 3908768  MarketName = Head To Head  MarketID = 231479333  SelectorError = 0.8620689655172414</t>
   </si>
   <si>
-    <t>6  This market works for Client  GameID = 3908768  MarketName = Head To Head  MarketID = 231479337  SelectorError = 0.8130081300813008</t>
+    <t>6  This market works for Client  GameID = 3908768  MarketName = Head To Head  MarketID = 231479335  SelectorError = 0.18518518518518517</t>
   </si>
   <si>
-    <t>7  This market works for Client  GameID = 3908768  MarketName = Head To Head  MarketID = 231479335  SelectorError = 0.18518518518518517</t>
+    <t>7  This market works for Client  GameID = 3908768  MarketName = Head To Head  MarketID = 231479334  SelectorError = 0.35211267605633806</t>
   </si>
 </sst>
 </file>
